--- a/public/data/profit/profit_table_rwanda.xlsx
+++ b/public/data/profit/profit_table_rwanda.xlsx
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-195.76</v>
+        <v>-116.24</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-115.75</v>
+        <v>-45.13</v>
       </c>
       <c r="L2" t="n">
-        <v>-276.67</v>
+        <v>-197.15</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-137</v>
+        <v>-111.84</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1278,34 +1278,34 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-67.55</v>
+        <v>62.43</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-139.18</v>
+        <v>-117.65</v>
       </c>
       <c r="T2" t="n">
-        <v>-137.28</v>
+        <v>-111.56</v>
       </c>
       <c r="U2" t="n">
-        <v>-136.37</v>
+        <v>-108.49</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-44.87</v>
+        <v>120.01</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-33.95</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-88.03</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="3">
@@ -1319,16 +1319,16 @@
         <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>-70</v>
+        <v>-56.51</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-47.46</v>
+        <v>0.66</v>
       </c>
       <c r="G3" t="n">
-        <v>-55.83</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-169.96</v>
+        <v>-121.84</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-138.98</v>
+        <v>-62.13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1358,34 +1358,34 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.7</v>
+        <v>288.64</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-150.68</v>
+        <v>-75.12</v>
       </c>
       <c r="T3" t="n">
-        <v>-146.24</v>
+        <v>-69.99</v>
       </c>
       <c r="U3" t="n">
-        <v>-132.25</v>
+        <v>-54.89</v>
       </c>
       <c r="V3" t="n">
-        <v>-55.62</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>138.5</v>
+        <v>240.74</v>
       </c>
       <c r="X3" t="n">
-        <v>-56.18</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-16.18</v>
+        <v>207.45</v>
       </c>
       <c r="Z3" t="n">
-        <v>-40.17</v>
+        <v>46.37</v>
       </c>
     </row>
     <row r="4">
@@ -1399,16 +1399,16 @@
         <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>-134.1</v>
+        <v>-92.45</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-173.86</v>
+        <v>-105.82</v>
       </c>
       <c r="G4" t="n">
-        <v>-69.55</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-188.86</v>
+        <v>-63.92</v>
       </c>
       <c r="L4" t="n">
-        <v>-325.94</v>
+        <v>-257.7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-238.95</v>
+        <v>-116.15</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1438,34 +1438,34 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.05</v>
+        <v>215.86</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-252.96</v>
+        <v>-130.5</v>
       </c>
       <c r="T4" t="n">
-        <v>-242.61</v>
+        <v>-120.08</v>
       </c>
       <c r="U4" t="n">
-        <v>-239.4</v>
+        <v>-116.12</v>
       </c>
       <c r="V4" t="n">
-        <v>-68.99</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>7.75</v>
+        <v>144.61</v>
       </c>
       <c r="X4" t="n">
-        <v>-70.53</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-72.78</v>
+        <v>85.52</v>
       </c>
       <c r="Z4" t="n">
-        <v>-177.42</v>
+        <v>-51.46</v>
       </c>
     </row>
     <row r="5">
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-51.63</v>
+        <v>14.23</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-101.88</v>
+        <v>-54.86</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-30.8</v>
+        <v>-22.05</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1518,34 +1518,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-35.26</v>
+        <v>-38.53</v>
       </c>
       <c r="T5" t="n">
-        <v>-28.91</v>
+        <v>-15.52</v>
       </c>
       <c r="U5" t="n">
-        <v>-34.08</v>
+        <v>-33.98</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3.3</v>
+        <v>109.86</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-11.98</v>
+        <v>51.06</v>
       </c>
     </row>
     <row r="6">
@@ -1559,16 +1559,16 @@
         <v>87</v>
       </c>
       <c r="D6" t="n">
-        <v>-82.46</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-95.5</v>
+        <v>-37.01</v>
       </c>
       <c r="G6" t="n">
-        <v>-16.16</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-250.93</v>
+        <v>-193.08</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-197.17</v>
+        <v>-81.17</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1598,34 +1598,34 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.22</v>
+        <v>191.22</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-205.37</v>
+        <v>-89.52</v>
       </c>
       <c r="T6" t="n">
-        <v>-206.02</v>
+        <v>-90.03</v>
       </c>
       <c r="U6" t="n">
-        <v>-194.89</v>
+        <v>-79.04</v>
       </c>
       <c r="V6" t="n">
-        <v>-15.89</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>26.6</v>
+        <v>142.44</v>
       </c>
       <c r="X6" t="n">
-        <v>-16.64</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-58.09</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-161.57</v>
+        <v>-45.58</v>
       </c>
     </row>
     <row r="7">
@@ -1639,16 +1639,16 @@
         <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>-105.66</v>
+        <v>-19.43</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>258.59</v>
+        <v>309.95</v>
       </c>
       <c r="G7" t="n">
-        <v>-39.88</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1657,28 +1657,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-102.2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-256.69</v>
+        <v>-194.17</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-167.95</v>
+        <v>-68.1</v>
       </c>
       <c r="O7" t="n">
-        <v>-148.7</v>
+        <v>-86.18</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>647.16</v>
+        <v>740.2</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1687,25 +1687,25 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-188.2</v>
+        <v>-88.35</v>
       </c>
       <c r="U7" t="n">
-        <v>-79.48</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>47.76</v>
+        <v>147.64</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-32.45</v>
+        <v>207.26</v>
       </c>
       <c r="Z7" t="n">
-        <v>-149.26</v>
+        <v>-56.21</v>
       </c>
     </row>
     <row r="8">
@@ -1719,13 +1719,13 @@
         <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>-71.1</v>
+        <v>-10.68</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>521.45</v>
+        <v>535.24</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-51.99</v>
+        <v>24.82</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>660.92</v>
+        <v>737.73</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-125.33</v>
+        <v>-48.51</v>
       </c>
       <c r="U8" t="n">
-        <v>-81.42</v>
+        <v>15.51</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-12.38</v>
+        <v>84.55</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>83.22</v>
+        <v>293.15</v>
       </c>
       <c r="Z8" t="n">
-        <v>-101.84</v>
+        <v>-25.03</v>
       </c>
     </row>
     <row r="9">
@@ -1799,16 +1799,16 @@
         <v>91</v>
       </c>
       <c r="D9" t="n">
-        <v>-125.74</v>
+        <v>-44.44</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>451.21</v>
+        <v>500.02</v>
       </c>
       <c r="G9" t="n">
-        <v>-35.95</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1823,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-247.46</v>
+        <v>-185.46</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-153.57</v>
+        <v>-45.3</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1838,34 +1838,34 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>609.54</v>
+        <v>717.8</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-231.83</v>
+        <v>-97.21</v>
       </c>
       <c r="T9" t="n">
-        <v>-201.33</v>
+        <v>-93.07</v>
       </c>
       <c r="U9" t="n">
-        <v>-132.96</v>
+        <v>-12.53</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>32.94</v>
+        <v>156.21</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.45</v>
+        <v>218.27</v>
       </c>
       <c r="Z9" t="n">
-        <v>-190.67</v>
+        <v>-82.4</v>
       </c>
     </row>
     <row r="10">
@@ -1879,13 +1879,13 @@
         <v>92</v>
       </c>
       <c r="D10" t="n">
-        <v>-113.55</v>
+        <v>-77.98</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>710.64</v>
+        <v>451.03</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-168.36</v>
+        <v>-114.97</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-110.45</v>
+        <v>-27.72</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1918,34 +1918,34 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>784.28</v>
+        <v>963.35</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-106.33</v>
+        <v>-56.47</v>
       </c>
       <c r="T10" t="n">
-        <v>-178.48</v>
+        <v>-103.17</v>
       </c>
       <c r="U10" t="n">
-        <v>-99.45</v>
+        <v>-46.36</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>68.05</v>
+        <v>193.94</v>
       </c>
       <c r="X10" t="n">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.88</v>
+        <v>512.97</v>
       </c>
       <c r="Z10" t="n">
-        <v>-140.69</v>
+        <v>-61.53</v>
       </c>
     </row>
     <row r="11">
@@ -1959,13 +1959,13 @@
         <v>93</v>
       </c>
       <c r="D11" t="n">
-        <v>-107.12</v>
+        <v>-34.79</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>164.74</v>
+        <v>194.77</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-129.88</v>
+        <v>-71.97</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>464.27</v>
+        <v>645.83</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-188.55</v>
+        <v>-134.46</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-34.6</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-13.88</v>
+        <v>87.26</v>
       </c>
       <c r="Z11" t="n">
-        <v>-133.92</v>
+        <v>-73.33</v>
       </c>
     </row>
     <row r="12">
@@ -2039,16 +2039,16 @@
         <v>94</v>
       </c>
       <c r="D12" t="n">
-        <v>-118.02</v>
+        <v>-6.48</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1247.01</v>
+        <v>1237.96</v>
       </c>
       <c r="G12" t="n">
-        <v>-66.12</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2057,28 +2057,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-126.39</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-352.06</v>
+        <v>-275.68</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>11.72</v>
+        <v>91.79</v>
       </c>
       <c r="O12" t="n">
-        <v>-265.38</v>
+        <v>-189.76</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1763.73</v>
+        <v>1837.4</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2087,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-107.56</v>
+        <v>-27.48</v>
       </c>
       <c r="U12" t="n">
-        <v>20.13</v>
+        <v>127.2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>207.9</v>
+        <v>314.99</v>
       </c>
       <c r="X12" t="n">
-        <v>-61.06</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>246.76</v>
+        <v>421.54</v>
       </c>
       <c r="Z12" t="n">
-        <v>-40.75</v>
+        <v>32.93</v>
       </c>
     </row>
     <row r="13">
@@ -2119,16 +2119,16 @@
         <v>95</v>
       </c>
       <c r="D13" t="n">
-        <v>-130.89</v>
+        <v>-71.05</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>193.47</v>
+        <v>209.11</v>
       </c>
       <c r="G13" t="n">
-        <v>-49.08</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-141.29</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -2149,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-179.76</v>
+        <v>-100.38</v>
       </c>
       <c r="O13" t="n">
-        <v>-31.51</v>
+        <v>8.48</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>306.03</v>
+        <v>386.62</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2167,25 +2167,25 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-210.51</v>
+        <v>-131.13</v>
       </c>
       <c r="U13" t="n">
-        <v>-122.21</v>
+        <v>-40.95</v>
       </c>
       <c r="V13" t="n">
-        <v>-39.01</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>349.41</v>
+        <v>434.56</v>
       </c>
       <c r="X13" t="n">
-        <v>-104.37</v>
+        <v>-12.69</v>
       </c>
       <c r="Y13" t="n">
-        <v>-67.08</v>
+        <v>39.15</v>
       </c>
       <c r="Z13" t="n">
-        <v>-165.73</v>
+        <v>-85.14</v>
       </c>
     </row>
     <row r="14">
@@ -2199,16 +2199,16 @@
         <v>96</v>
       </c>
       <c r="D14" t="n">
-        <v>-135.13</v>
+        <v>-16.79</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1441.38</v>
+        <v>1436.54</v>
       </c>
       <c r="G14" t="n">
-        <v>-29.91</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>6.14</v>
+        <v>85.3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1758.48</v>
+        <v>1837.64</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2247,25 +2247,25 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-115.02</v>
+        <v>-35.86</v>
       </c>
       <c r="U14" t="n">
-        <v>-90.23</v>
+        <v>28.81</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>43.52</v>
+        <v>162.56</v>
       </c>
       <c r="X14" t="n">
-        <v>-61.06</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>235.86</v>
+        <v>354.19</v>
       </c>
       <c r="Z14" t="n">
-        <v>-81.12</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="15">
@@ -2279,16 +2279,16 @@
         <v>98</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.14</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-151.5</v>
+        <v>-62.63</v>
       </c>
       <c r="G15" t="n">
-        <v>-36.89</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2297,22 +2297,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-30.14</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-219.3</v>
+        <v>-124.03</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-76.01</v>
+        <v>-72.61</v>
       </c>
       <c r="O15" t="n">
-        <v>-167.08</v>
+        <v>-78.21</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2324,25 +2324,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-55.7</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-75.72</v>
+        <v>-70.97</v>
       </c>
       <c r="U15" t="n">
-        <v>-76.39</v>
+        <v>7.3</v>
       </c>
       <c r="V15" t="n">
-        <v>-51.72</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-28.06</v>
+        <v>128.01</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-29.8</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>99</v>
       </c>
       <c r="D16" t="n">
-        <v>-125.88</v>
+        <v>-54.31</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-126.59</v>
+        <v>-46.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-55.35</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2383,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-275.37</v>
+        <v>-190.08</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-125.73</v>
+        <v>-90.54</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2398,34 +2398,34 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.56</v>
+        <v>321.54</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-144.73</v>
+        <v>-119.84</v>
       </c>
       <c r="T16" t="n">
-        <v>-126.93</v>
+        <v>-94.05</v>
       </c>
       <c r="U16" t="n">
-        <v>-124.94</v>
+        <v>-103</v>
       </c>
       <c r="V16" t="n">
-        <v>-54.67</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-16.3</v>
+        <v>175.84</v>
       </c>
       <c r="X16" t="n">
-        <v>-56.56</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-73.33</v>
+        <v>105.54</v>
       </c>
       <c r="Z16" t="n">
-        <v>-111.84</v>
+        <v>-38.59</v>
       </c>
     </row>
     <row r="17">
@@ -2439,16 +2439,16 @@
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>-72.78</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-127.68</v>
+        <v>-51.91</v>
       </c>
       <c r="G17" t="n">
-        <v>-22.02</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2463,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-128.05</v>
+        <v>-83.71</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-88.35</v>
+        <v>-64.41</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2478,34 +2478,34 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-7.55</v>
+        <v>239.03</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-101.5</v>
+        <v>-114.21</v>
       </c>
       <c r="T17" t="n">
-        <v>-95.27</v>
+        <v>-91.68</v>
       </c>
       <c r="U17" t="n">
-        <v>-79.58</v>
+        <v>-49.3</v>
       </c>
       <c r="V17" t="n">
-        <v>-21.99</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-54.12</v>
+        <v>39.03</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-44.53</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-93.23</v>
+        <v>-83.65</v>
       </c>
     </row>
     <row r="18">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="D18" t="n">
-        <v>-84.56</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-140.87</v>
+        <v>-67.53</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2543,49 +2543,49 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-145.54</v>
+        <v>-74.26</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-69.37</v>
+        <v>-95.85</v>
       </c>
       <c r="O18" t="n">
-        <v>-165.13</v>
+        <v>-100.87</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>-45.87</v>
+        <v>0.31</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-73.89</v>
+        <v>-127.22</v>
       </c>
       <c r="T18" t="n">
-        <v>-71.86</v>
+        <v>-113.95</v>
       </c>
       <c r="U18" t="n">
-        <v>-67.95</v>
+        <v>-92.3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>-63.21</v>
+        <v>-85.64</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>-76.18</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-77.16</v>
+        <v>-108.1</v>
       </c>
     </row>
     <row r="19">
@@ -2599,16 +2599,16 @@
         <v>102</v>
       </c>
       <c r="D19" t="n">
-        <v>-85.42</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-198.33</v>
+        <v>-120.03</v>
       </c>
       <c r="G19" t="n">
-        <v>-51.9</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2623,49 +2623,49 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-216.29</v>
+        <v>-113.63</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-147.73</v>
+        <v>-84.58</v>
       </c>
       <c r="O19" t="n">
-        <v>-167.39</v>
+        <v>-53.19</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-54.38</v>
+        <v>71.33</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-172.38</v>
+        <v>-126.57</v>
       </c>
       <c r="T19" t="n">
-        <v>-164.31</v>
+        <v>-112.49</v>
       </c>
       <c r="U19" t="n">
-        <v>-143.77</v>
+        <v>-70.47</v>
       </c>
       <c r="V19" t="n">
-        <v>-51.72</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-88.91</v>
+        <v>24.14</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-77.12</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>-199.43</v>
+        <v>-100.75</v>
       </c>
     </row>
     <row r="20">
@@ -2679,19 +2679,19 @@
         <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>-126.84</v>
+        <v>-101.38</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-129.63</v>
+        <v>-71.97</v>
       </c>
       <c r="G20" t="n">
-        <v>-58.8</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-52.33</v>
+        <v>7.73</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2700,16 +2700,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-100.93</v>
+        <v>-33.51</v>
       </c>
       <c r="L20" t="n">
-        <v>-245.87</v>
+        <v>-200.87</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-95.33</v>
+        <v>-137.12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2718,34 +2718,34 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-23.18</v>
+        <v>161.65</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-101.31</v>
+        <v>-137.42</v>
       </c>
       <c r="T20" t="n">
-        <v>-97.59</v>
+        <v>-148.35</v>
       </c>
       <c r="U20" t="n">
-        <v>-115.06</v>
+        <v>-130.13</v>
       </c>
       <c r="V20" t="n">
-        <v>-58.5</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-46.24</v>
+        <v>100.23</v>
       </c>
       <c r="X20" t="n">
-        <v>-59.31</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-91.6</v>
+        <v>-2.86</v>
       </c>
       <c r="Z20" t="n">
-        <v>-91.23</v>
+        <v>-104.25</v>
       </c>
     </row>
     <row r="21">
@@ -2759,16 +2759,16 @@
         <v>104</v>
       </c>
       <c r="D21" t="n">
-        <v>-83.17</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-41.66</v>
+        <v>34.03</v>
       </c>
       <c r="G21" t="n">
-        <v>-17.14</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-258.65</v>
+        <v>-180.36</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-155.35</v>
+        <v>-51.39</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2798,34 +2798,34 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.4</v>
+        <v>252.55</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-188.67</v>
+        <v>-126.95</v>
       </c>
       <c r="T21" t="n">
-        <v>-167.94</v>
+        <v>-71.8</v>
       </c>
       <c r="U21" t="n">
-        <v>-159.38</v>
+        <v>-34.91</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-94.27</v>
+        <v>44.78</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-35.66</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>-163.37</v>
+        <v>-65.88</v>
       </c>
     </row>
     <row r="22">
@@ -2839,13 +2839,13 @@
         <v>106</v>
       </c>
       <c r="D22" t="n">
-        <v>-123.85</v>
+        <v>-34.91</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.03</v>
+        <v>187.18</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-167.01</v>
+        <v>-65.14</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>931.74</v>
+        <v>1164.46</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2887,25 +2887,25 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-215.77</v>
+        <v>-120.07</v>
       </c>
       <c r="U22" t="n">
-        <v>-244.91</v>
+        <v>-48.6</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-242.16</v>
+        <v>-45.85</v>
       </c>
       <c r="X22" t="n">
-        <v>-60.79</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.05</v>
+        <v>182.13</v>
       </c>
       <c r="Z22" t="n">
-        <v>-185.86</v>
+        <v>-86.29</v>
       </c>
     </row>
     <row r="23">
@@ -2919,13 +2919,13 @@
         <v>107</v>
       </c>
       <c r="D23" t="n">
-        <v>-207.27</v>
+        <v>-83.71</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>242.64</v>
+        <v>276.19</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-253.56</v>
+        <v>-155.21</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1665.03</v>
+        <v>1763.38</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-290.87</v>
+        <v>-192.52</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-94.6</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.3</v>
+        <v>153.22</v>
       </c>
       <c r="Z23" t="n">
-        <v>-231.39</v>
+        <v>-133.04</v>
       </c>
     </row>
     <row r="24">
@@ -2999,13 +2999,13 @@
         <v>108</v>
       </c>
       <c r="D24" t="n">
-        <v>-137.12</v>
+        <v>-156.57</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-67.42</v>
+        <v>-7.79</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-174.3</v>
+        <v>-105.65</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-163.68</v>
+        <v>-141.02</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3038,34 +3038,34 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>580.3</v>
+        <v>1009.51</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-90.07</v>
+        <v>-71.65</v>
       </c>
       <c r="T24" t="n">
-        <v>-172.47</v>
+        <v>-154.3</v>
       </c>
       <c r="U24" t="n">
-        <v>-84.22</v>
+        <v>-62.04</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>7.48</v>
+        <v>119.9</v>
       </c>
       <c r="X24" t="n">
-        <v>-102.25</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-30.06</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>-119.1</v>
+        <v>-88.99</v>
       </c>
     </row>
     <row r="25">
@@ -3079,13 +3079,13 @@
         <v>109</v>
       </c>
       <c r="D25" t="n">
-        <v>-50.38</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-88.33</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-126.75</v>
+        <v>-58.7</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-44.73</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-125.16</v>
+        <v>-63.69</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.04</v>
+        <v>419.66</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3127,25 +3127,25 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-136.99</v>
+        <v>-76.82</v>
       </c>
       <c r="U25" t="n">
-        <v>-141.63</v>
+        <v>-74.7</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-111.96</v>
+        <v>-17.51</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-15.71</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>-129.93</v>
+        <v>-72.35</v>
       </c>
     </row>
     <row r="26">
@@ -3159,13 +3159,13 @@
         <v>110</v>
       </c>
       <c r="D26" t="n">
-        <v>-45.08</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-41.57</v>
+        <v>9.25</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-66.99</v>
+        <v>-49.02</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.59</v>
+        <v>361.78</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-70.09</v>
+        <v>-56.14</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>-60.6</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="27">
@@ -3239,13 +3239,13 @@
         <v>111</v>
       </c>
       <c r="D27" t="n">
-        <v>-65.19</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-139.07</v>
+        <v>-64.86</v>
       </c>
       <c r="F27" t="n">
-        <v>-64.39</v>
+        <v>-7.21</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3257,28 +3257,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-79.37</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-144.39</v>
+        <v>-93.53</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-100.43</v>
+        <v>-43.59</v>
       </c>
       <c r="O27" t="n">
-        <v>-118.4</v>
+        <v>-68.16</v>
       </c>
       <c r="P27" t="n">
-        <v>-106.88</v>
+        <v>-64.84</v>
       </c>
       <c r="Q27" t="n">
-        <v>-31.54</v>
+        <v>76.21</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3287,25 +3287,25 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-101.98</v>
+        <v>-43.58</v>
       </c>
       <c r="U27" t="n">
-        <v>-87.11</v>
+        <v>-20.63</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-50.46</v>
+        <v>45.59</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>-56.9</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>-104.16</v>
+        <v>-31.41</v>
       </c>
     </row>
     <row r="28">
@@ -3319,13 +3319,13 @@
         <v>112</v>
       </c>
       <c r="D28" t="n">
-        <v>-146.17</v>
+        <v>-107.81</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.94</v>
+        <v>68.36</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-220.09</v>
+        <v>-140.5</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1001.57</v>
+        <v>1209.1</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-184.72</v>
+        <v>-55.36</v>
       </c>
       <c r="T28" t="n">
-        <v>-225.06</v>
+        <v>-145.79</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3379,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-94.54</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-69.48</v>
+        <v>45.63</v>
       </c>
       <c r="Z28" t="n">
-        <v>-192.67</v>
+        <v>-110.22</v>
       </c>
     </row>
     <row r="29">
@@ -3399,13 +3399,13 @@
         <v>114</v>
       </c>
       <c r="D29" t="n">
-        <v>-55.37</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-111.62</v>
+        <v>-47.71</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-243.38</v>
+        <v>-179.47</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-178.45</v>
+        <v>-65.46</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3438,34 +3438,34 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>77.58</v>
+        <v>220.88</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-186.75</v>
+        <v>-82.62</v>
       </c>
       <c r="T29" t="n">
-        <v>-191.45</v>
+        <v>-80.44</v>
       </c>
       <c r="U29" t="n">
-        <v>-179.64</v>
+        <v>-73.9</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-17.76</v>
+        <v>121.02</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-37.27</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>-173.38</v>
+        <v>-60.76</v>
       </c>
     </row>
     <row r="30">
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-41.2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-252.28</v>
+        <v>-188.67</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3530,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-80.27</v>
+        <v>53.48</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>98.45</v>
+        <v>233.06</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>116</v>
       </c>
       <c r="D31" t="n">
-        <v>-150.85</v>
+        <v>-66.55</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.69</v>
+        <v>203.62</v>
       </c>
       <c r="G31" t="n">
-        <v>-38.97</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3583,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-227.63</v>
+        <v>-167.85</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-241.29</v>
+        <v>-119.36</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3598,34 +3598,34 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>271.26</v>
+        <v>393.2</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-238.6</v>
+        <v>-113.45</v>
       </c>
       <c r="T31" t="n">
-        <v>-265.3</v>
+        <v>-143.37</v>
       </c>
       <c r="U31" t="n">
-        <v>-158.98</v>
+        <v>-39.16</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>32.94</v>
+        <v>155.62</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-45.75</v>
+        <v>118.49</v>
       </c>
       <c r="Z31" t="n">
-        <v>-266.5</v>
+        <v>-144.56</v>
       </c>
     </row>
   </sheetData>
